--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request1200.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request1200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2811"/>
+  <dimension ref="A1:C2810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.932</v>
+        <v>19.932</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0296</v>
+        <v>0.0288</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0024</v>
+        <v>0.0032</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.1976</v>
+        <v>7.1984</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0576</v>
+        <v>0.0568</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2024</v>
+        <v>0.204</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0464</v>
+        <v>0.0456</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0016</v>
+        <v>0.0024</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0864</v>
+        <v>0.08480000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0624</v>
+        <v>0.064</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0704</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1256</v>
+        <v>0.1264</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3112</v>
+        <v>0.3104</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.427200000000001</v>
+        <v>6.428</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2784</v>
+        <v>0.2768</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3512000000000001</v>
+        <v>0.352</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9272</v>
+        <v>0.9264000000000001</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9184000000000001</v>
+        <v>0.9168000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2688</v>
+        <v>0.2696</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0128</v>
+        <v>0.012</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0072</v>
+        <v>0.008</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.064</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0536</v>
+        <v>0.0544</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8456</v>
+        <v>0.8448000000000001</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08880000000000002</v>
+        <v>0.08960000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1576</v>
+        <v>0.1584</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3192</v>
+        <v>0.3184</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.9216</v>
+        <v>3.9208</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.4256</v>
+        <v>2.428</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4208</v>
+        <v>0.42</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244</v>
+        <v>0.2448</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.16</v>
+        <v>0.1592</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2424</v>
+        <v>0.2432</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4056</v>
+        <v>0.4048</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3144</v>
+        <v>0.3152</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4256</v>
+        <v>0.4248</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2288</v>
+        <v>0.2296</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.3368</v>
+        <v>1.336</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.424</v>
+        <v>0.4248</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4216</v>
+        <v>0.4208</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.406400000000001</v>
+        <v>7.405600000000001</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9208000000000001</v>
+        <v>0.9216</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3448</v>
+        <v>0.344</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.3304</v>
+        <v>16.3312</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>0.0192</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="136">
@@ -1927,7 +1927,7 @@
         <v>0.07440000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="137">
@@ -1938,7 +1938,7 @@
         <v>0.1232</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="138">
@@ -1949,7 +1949,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="139">
@@ -3225,7 +3225,7 @@
         <v>2.34</v>
       </c>
       <c r="C254" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="255">
@@ -3236,7 +3236,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C255" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="256">
@@ -3247,7 +3247,7 @@
         <v>0.588</v>
       </c>
       <c r="C256" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="257">
@@ -3258,7 +3258,7 @@
         <v>0.4088</v>
       </c>
       <c r="C257" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="258">
@@ -3269,7 +3269,7 @@
         <v>0.1904</v>
       </c>
       <c r="C258" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="259">
@@ -3280,7 +3280,7 @@
         <v>0.4168</v>
       </c>
       <c r="C259" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="260">
@@ -3291,7 +3291,7 @@
         <v>0.0544</v>
       </c>
       <c r="C260" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="261">
@@ -3302,7 +3302,7 @@
         <v>0.2</v>
       </c>
       <c r="C261" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="262">
@@ -3313,7 +3313,7 @@
         <v>0.804</v>
       </c>
       <c r="C262" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="263">
@@ -3376,7 +3376,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1008</v>
+        <v>0.1016</v>
       </c>
       <c r="C268" t="n">
         <v>625001</v>
@@ -3409,7 +3409,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.7888000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="C271" t="n">
         <v>625001</v>
@@ -3420,7 +3420,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1424</v>
+        <v>0.1432</v>
       </c>
       <c r="C272" t="n">
         <v>625001</v>
@@ -3431,7 +3431,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4168</v>
+        <v>0.4176</v>
       </c>
       <c r="C273" t="n">
         <v>625001</v>
@@ -3442,7 +3442,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.0408</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C274" t="n">
         <v>625001</v>
@@ -4523,7 +4523,7 @@
         <v>1.14</v>
       </c>
       <c r="C372" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="373">
@@ -4534,7 +4534,7 @@
         <v>0.6032000000000001</v>
       </c>
       <c r="C373" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="374">
@@ -4545,7 +4545,7 @@
         <v>0.1536</v>
       </c>
       <c r="C374" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="375">
@@ -4556,7 +4556,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C375" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="376">
@@ -4567,7 +4567,7 @@
         <v>1.596</v>
       </c>
       <c r="C376" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="377">
@@ -4578,7 +4578,7 @@
         <v>0.052</v>
       </c>
       <c r="C377" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="378">
@@ -4589,7 +4589,7 @@
         <v>0.9264000000000001</v>
       </c>
       <c r="C378" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="379">
@@ -4600,7 +4600,7 @@
         <v>1.732</v>
       </c>
       <c r="C379" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="380">
@@ -4611,7 +4611,7 @@
         <v>0.4104</v>
       </c>
       <c r="C380" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="381">
@@ -4622,7 +4622,7 @@
         <v>2.572</v>
       </c>
       <c r="C381" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="382">
@@ -4839,7 +4839,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.772</v>
+        <v>1.7712</v>
       </c>
       <c r="C401" t="n">
         <v>937501</v>
@@ -4861,7 +4861,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1.4136</v>
+        <v>1.4128</v>
       </c>
       <c r="C403" t="n">
         <v>937501</v>
@@ -4872,7 +4872,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>4.6512</v>
+        <v>4.652</v>
       </c>
       <c r="C404" t="n">
         <v>937501</v>
@@ -4883,7 +4883,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9056000000000001</v>
+        <v>0.9048</v>
       </c>
       <c r="C405" t="n">
         <v>937501</v>
@@ -4894,7 +4894,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1.6504</v>
+        <v>1.652</v>
       </c>
       <c r="C406" t="n">
         <v>937501</v>
@@ -5370,7 +5370,7 @@
         <v>14.104</v>
       </c>
       <c r="C449" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="450">
@@ -5381,7 +5381,7 @@
         <v>0.28</v>
       </c>
       <c r="C450" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="451">
@@ -5708,7 +5708,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>6.427200000000001</v>
+        <v>6.428</v>
       </c>
       <c r="C480" t="n">
         <v>1250001</v>
@@ -5741,7 +5741,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>1.0208</v>
+        <v>1.02</v>
       </c>
       <c r="C483" t="n">
         <v>1250001</v>
@@ -5763,7 +5763,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0.416</v>
+        <v>0.4168</v>
       </c>
       <c r="C485" t="n">
         <v>1250001</v>
@@ -5774,7 +5774,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0.012</v>
+        <v>0.0112</v>
       </c>
       <c r="C486" t="n">
         <v>1250001</v>
@@ -5785,7 +5785,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0.0144</v>
+        <v>0.0152</v>
       </c>
       <c r="C487" t="n">
         <v>1250001</v>
@@ -5796,7 +5796,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0704</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C488" t="n">
         <v>1250001</v>
@@ -5851,7 +5851,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0.2456</v>
+        <v>0.2464</v>
       </c>
       <c r="C493" t="n">
         <v>1250001</v>
@@ -5862,7 +5862,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.3184</v>
+        <v>0.3176</v>
       </c>
       <c r="C494" t="n">
         <v>1250001</v>
@@ -5884,7 +5884,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>0.316</v>
+        <v>0.3168</v>
       </c>
       <c r="C496" t="n">
         <v>1250001</v>
@@ -5895,7 +5895,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0.2416</v>
+        <v>0.2408</v>
       </c>
       <c r="C497" t="n">
         <v>1250001</v>
@@ -5906,7 +5906,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>1.408</v>
+        <v>1.4088</v>
       </c>
       <c r="C498" t="n">
         <v>1250001</v>
@@ -5928,7 +5928,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>2.4256</v>
+        <v>2.4248</v>
       </c>
       <c r="C500" t="n">
         <v>1250001</v>
@@ -6822,7 +6822,7 @@
         <v>0.7248000000000001</v>
       </c>
       <c r="C581" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="582">
@@ -6833,7 +6833,7 @@
         <v>0.424</v>
       </c>
       <c r="C582" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="583">
@@ -6844,7 +6844,7 @@
         <v>3.9592</v>
       </c>
       <c r="C583" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="584">
@@ -6855,7 +6855,7 @@
         <v>0.0664</v>
       </c>
       <c r="C584" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="585">
@@ -6866,7 +6866,7 @@
         <v>1.8296</v>
       </c>
       <c r="C585" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="586">
@@ -6874,10 +6874,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>0.6103999999999999</v>
+        <v>0.6112000000000001</v>
       </c>
       <c r="C586" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="587">
@@ -6885,10 +6885,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>1.0648</v>
+        <v>1.064</v>
       </c>
       <c r="C587" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="588">
@@ -6899,7 +6899,7 @@
         <v>0.9128000000000001</v>
       </c>
       <c r="C588" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="589">
@@ -6910,7 +6910,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C589" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="590">
@@ -6921,7 +6921,7 @@
         <v>0.008</v>
       </c>
       <c r="C590" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="591">
@@ -7746,7 +7746,7 @@
         <v>2.9176</v>
       </c>
       <c r="C665" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="666">
@@ -7757,7 +7757,7 @@
         <v>8.907200000000001</v>
       </c>
       <c r="C666" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="667">
@@ -7768,7 +7768,7 @@
         <v>2.916</v>
       </c>
       <c r="C667" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="668">
@@ -7779,7 +7779,7 @@
         <v>1.428</v>
       </c>
       <c r="C668" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="669">
@@ -8175,7 +8175,7 @@
         <v>1.4088</v>
       </c>
       <c r="C704" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="705">
@@ -8186,7 +8186,7 @@
         <v>0.4864000000000001</v>
       </c>
       <c r="C705" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="706">
@@ -9814,7 +9814,7 @@
         <v>1.9248</v>
       </c>
       <c r="C853" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="854">
@@ -9825,7 +9825,7 @@
         <v>4.8248</v>
       </c>
       <c r="C854" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="855">
@@ -9836,7 +9836,7 @@
         <v>0.412</v>
       </c>
       <c r="C855" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="856">
@@ -9847,7 +9847,7 @@
         <v>2.4184</v>
       </c>
       <c r="C856" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="857">
@@ -9858,7 +9858,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C857" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="858">
@@ -9869,7 +9869,7 @@
         <v>2.7608</v>
       </c>
       <c r="C858" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="859">
@@ -9880,7 +9880,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C859" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="860">
@@ -9891,7 +9891,7 @@
         <v>11.3296</v>
       </c>
       <c r="C860" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="861">
@@ -10606,7 +10606,7 @@
         <v>2.9168</v>
       </c>
       <c r="C925" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="926">
@@ -10617,7 +10617,7 @@
         <v>1.4064</v>
       </c>
       <c r="C926" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="927">
@@ -10628,7 +10628,7 @@
         <v>7.4088</v>
       </c>
       <c r="C927" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="928">
@@ -10639,7 +10639,7 @@
         <v>2.9168</v>
       </c>
       <c r="C928" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="929">
@@ -10650,7 +10650,7 @@
         <v>1.4272</v>
       </c>
       <c r="C929" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="930">
@@ -11046,7 +11046,7 @@
         <v>1.4088</v>
       </c>
       <c r="C965" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="966">
@@ -11057,7 +11057,7 @@
         <v>9.324</v>
       </c>
       <c r="C966" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="967">
@@ -12663,7 +12663,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1112" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1113">
@@ -12674,7 +12674,7 @@
         <v>4.8248</v>
       </c>
       <c r="C1113" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1114">
@@ -12685,7 +12685,7 @@
         <v>0.412</v>
       </c>
       <c r="C1114" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1115">
@@ -12696,7 +12696,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1115" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1116">
@@ -12707,7 +12707,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C1116" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1117">
@@ -12718,7 +12718,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1117" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1118">
@@ -12729,7 +12729,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1118" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1119">
@@ -12740,7 +12740,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1119" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1120">
@@ -13455,7 +13455,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1184" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1185">
@@ -13466,7 +13466,7 @@
         <v>1.4064</v>
       </c>
       <c r="C1185" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1186">
@@ -13477,7 +13477,7 @@
         <v>7.4088</v>
       </c>
       <c r="C1186" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1187">
@@ -13488,7 +13488,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1187" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1188">
@@ -13499,7 +13499,7 @@
         <v>1.4272</v>
       </c>
       <c r="C1188" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1189">
@@ -13895,7 +13895,7 @@
         <v>1.4088</v>
       </c>
       <c r="C1224" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1225">
@@ -13906,7 +13906,7 @@
         <v>9.324</v>
       </c>
       <c r="C1225" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1226">
@@ -15512,7 +15512,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1371" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1372">
@@ -15523,7 +15523,7 @@
         <v>4.8248</v>
       </c>
       <c r="C1372" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1373">
@@ -15534,7 +15534,7 @@
         <v>0.412</v>
       </c>
       <c r="C1373" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1374">
@@ -15545,7 +15545,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1374" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1375">
@@ -15556,7 +15556,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C1375" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1376">
@@ -15567,7 +15567,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1376" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1377">
@@ -15578,7 +15578,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1377" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1378">
@@ -15589,7 +15589,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1378" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1379">
@@ -16304,7 +16304,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1443" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1444">
@@ -16315,7 +16315,7 @@
         <v>1.4064</v>
       </c>
       <c r="C1444" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1445">
@@ -16326,7 +16326,7 @@
         <v>7.4088</v>
       </c>
       <c r="C1445" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1446">
@@ -16337,7 +16337,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1446" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1447">
@@ -16348,7 +16348,7 @@
         <v>1.4272</v>
       </c>
       <c r="C1447" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1448">
@@ -16744,7 +16744,7 @@
         <v>1.4088</v>
       </c>
       <c r="C1483" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1484">
@@ -16755,7 +16755,7 @@
         <v>9.324</v>
       </c>
       <c r="C1484" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1485">
@@ -18361,7 +18361,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1630" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1631">
@@ -18372,7 +18372,7 @@
         <v>4.8248</v>
       </c>
       <c r="C1631" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1632">
@@ -18383,7 +18383,7 @@
         <v>0.412</v>
       </c>
       <c r="C1632" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1633">
@@ -18394,7 +18394,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1633" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1634">
@@ -18405,7 +18405,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C1634" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1635">
@@ -18416,7 +18416,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1635" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1636">
@@ -18427,7 +18427,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1636" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1637">
@@ -18438,7 +18438,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1637" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1638">
@@ -19153,7 +19153,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1702" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1703">
@@ -19164,7 +19164,7 @@
         <v>1.4064</v>
       </c>
       <c r="C1703" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1704">
@@ -19175,7 +19175,7 @@
         <v>7.4088</v>
       </c>
       <c r="C1704" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1705">
@@ -19186,7 +19186,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1705" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1706">
@@ -19197,7 +19197,7 @@
         <v>1.4272</v>
       </c>
       <c r="C1706" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1707">
@@ -19593,7 +19593,7 @@
         <v>1.4088</v>
       </c>
       <c r="C1742" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1743">
@@ -19604,7 +19604,7 @@
         <v>9.324</v>
       </c>
       <c r="C1743" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1744">
@@ -21210,7 +21210,7 @@
         <v>1.9248</v>
       </c>
       <c r="C1889" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1890">
@@ -21221,7 +21221,7 @@
         <v>4.8248</v>
       </c>
       <c r="C1890" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1891">
@@ -21232,7 +21232,7 @@
         <v>0.412</v>
       </c>
       <c r="C1891" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1892">
@@ -21243,7 +21243,7 @@
         <v>2.4184</v>
       </c>
       <c r="C1892" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1893">
@@ -21254,7 +21254,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C1893" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1894">
@@ -21265,7 +21265,7 @@
         <v>2.7608</v>
       </c>
       <c r="C1894" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1895">
@@ -21276,7 +21276,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C1895" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1896">
@@ -21287,7 +21287,7 @@
         <v>11.3296</v>
       </c>
       <c r="C1896" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1897">
@@ -22002,7 +22002,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1961" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1962">
@@ -22013,7 +22013,7 @@
         <v>1.4064</v>
       </c>
       <c r="C1962" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1963">
@@ -22024,7 +22024,7 @@
         <v>7.4088</v>
       </c>
       <c r="C1963" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1964">
@@ -22035,7 +22035,7 @@
         <v>2.9168</v>
       </c>
       <c r="C1964" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1965">
@@ -22046,7 +22046,7 @@
         <v>1.4272</v>
       </c>
       <c r="C1965" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1966">
@@ -22442,7 +22442,7 @@
         <v>1.4088</v>
       </c>
       <c r="C2001" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2002">
@@ -22453,7 +22453,7 @@
         <v>9.324</v>
       </c>
       <c r="C2002" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2003">
@@ -24059,7 +24059,7 @@
         <v>1.9248</v>
       </c>
       <c r="C2148" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2149">
@@ -24070,7 +24070,7 @@
         <v>4.8248</v>
       </c>
       <c r="C2149" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2150">
@@ -24081,7 +24081,7 @@
         <v>0.412</v>
       </c>
       <c r="C2150" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2151">
@@ -24092,7 +24092,7 @@
         <v>2.4184</v>
       </c>
       <c r="C2151" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2152">
@@ -24103,7 +24103,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C2152" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2153">
@@ -24114,7 +24114,7 @@
         <v>2.7608</v>
       </c>
       <c r="C2153" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2154">
@@ -24125,7 +24125,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C2154" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2155">
@@ -24136,7 +24136,7 @@
         <v>11.3296</v>
       </c>
       <c r="C2155" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2156">
@@ -24851,7 +24851,7 @@
         <v>2.9168</v>
       </c>
       <c r="C2220" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2221">
@@ -24862,7 +24862,7 @@
         <v>1.4064</v>
       </c>
       <c r="C2221" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2222">
@@ -24873,7 +24873,7 @@
         <v>7.4088</v>
       </c>
       <c r="C2222" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2223">
@@ -24884,7 +24884,7 @@
         <v>2.9168</v>
       </c>
       <c r="C2223" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2224">
@@ -24895,7 +24895,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2224" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2225">
@@ -25291,7 +25291,7 @@
         <v>1.4088</v>
       </c>
       <c r="C2260" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2261">
@@ -25302,7 +25302,7 @@
         <v>9.324</v>
       </c>
       <c r="C2261" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2262">
@@ -26908,7 +26908,7 @@
         <v>1.9248</v>
       </c>
       <c r="C2407" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2408">
@@ -26919,7 +26919,7 @@
         <v>4.8248</v>
       </c>
       <c r="C2408" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2409">
@@ -26930,7 +26930,7 @@
         <v>0.412</v>
       </c>
       <c r="C2409" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2410">
@@ -26941,7 +26941,7 @@
         <v>2.4184</v>
       </c>
       <c r="C2410" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2411">
@@ -26952,7 +26952,7 @@
         <v>0.6103999999999999</v>
       </c>
       <c r="C2411" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2412">
@@ -26963,7 +26963,7 @@
         <v>2.7608</v>
       </c>
       <c r="C2412" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2413">
@@ -26974,7 +26974,7 @@
         <v>0.9024000000000001</v>
       </c>
       <c r="C2413" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2414">
@@ -26985,7 +26985,7 @@
         <v>11.3296</v>
       </c>
       <c r="C2414" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2415">
@@ -27345,7 +27345,7 @@
         <v>2445</v>
       </c>
       <c r="B2447" t="n">
-        <v>0.7648</v>
+        <v>0.7656000000000001</v>
       </c>
       <c r="C2447" t="n">
         <v>10312501</v>
@@ -27389,7 +27389,7 @@
         <v>2449</v>
       </c>
       <c r="B2451" t="n">
-        <v>2.3416</v>
+        <v>2.3408</v>
       </c>
       <c r="C2451" t="n">
         <v>10312501</v>
@@ -27700,7 +27700,7 @@
         <v>2.916</v>
       </c>
       <c r="C2479" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2480">
@@ -27711,7 +27711,7 @@
         <v>1.4072</v>
       </c>
       <c r="C2480" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2481">
@@ -27722,7 +27722,7 @@
         <v>7.408</v>
       </c>
       <c r="C2481" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2482">
@@ -27733,7 +27733,7 @@
         <v>2.9176</v>
       </c>
       <c r="C2482" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2483">
@@ -27744,7 +27744,7 @@
         <v>1.4264</v>
       </c>
       <c r="C2483" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2484">
@@ -28140,7 +28140,7 @@
         <v>1.4072</v>
       </c>
       <c r="C2519" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2520">
@@ -28151,7 +28151,7 @@
         <v>9.324800000000002</v>
       </c>
       <c r="C2520" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2521">
@@ -29757,7 +29757,7 @@
         <v>1.9248</v>
       </c>
       <c r="C2666" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2667">
@@ -29768,7 +29768,7 @@
         <v>4.824</v>
       </c>
       <c r="C2667" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2668">
@@ -29779,7 +29779,7 @@
         <v>0.412</v>
       </c>
       <c r="C2668" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2669">
@@ -29790,7 +29790,7 @@
         <v>2.4184</v>
       </c>
       <c r="C2669" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2670">
@@ -29801,7 +29801,7 @@
         <v>0.6112000000000001</v>
       </c>
       <c r="C2670" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2671">
@@ -29812,7 +29812,7 @@
         <v>2.7592</v>
       </c>
       <c r="C2671" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2672">
@@ -29823,7 +29823,7 @@
         <v>0.9032</v>
       </c>
       <c r="C2672" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2673">
@@ -29834,7 +29834,7 @@
         <v>11.3296</v>
       </c>
       <c r="C2673" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2674">
@@ -30549,7 +30549,7 @@
         <v>2.916</v>
       </c>
       <c r="C2738" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2739">
@@ -30560,7 +30560,7 @@
         <v>1.4072</v>
       </c>
       <c r="C2739" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2740">
@@ -30571,7 +30571,7 @@
         <v>7.408</v>
       </c>
       <c r="C2740" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2741">
@@ -30582,7 +30582,7 @@
         <v>2.9176</v>
       </c>
       <c r="C2741" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2742">
@@ -30593,7 +30593,7 @@
         <v>1.4264</v>
       </c>
       <c r="C2742" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2743">
@@ -30989,7 +30989,7 @@
         <v>1.4072</v>
       </c>
       <c r="C2778" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2779">
@@ -31000,7 +31000,7 @@
         <v>9.324800000000002</v>
       </c>
       <c r="C2779" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2780">
@@ -31250,7 +31250,7 @@
         <v>2800</v>
       </c>
       <c r="B2802" t="n">
-        <v>8.747200000000001</v>
+        <v>6.752800000000001</v>
       </c>
       <c r="C2802" t="n">
         <v>12187501</v>
@@ -31261,7 +31261,7 @@
         <v>2801</v>
       </c>
       <c r="B2803" t="n">
-        <v>5.905600000000001</v>
+        <v>1.9144</v>
       </c>
       <c r="C2803" t="n">
         <v>12187501</v>
@@ -31272,7 +31272,7 @@
         <v>2802</v>
       </c>
       <c r="B2804" t="n">
-        <v>1.8152</v>
+        <v>5.905600000000001</v>
       </c>
       <c r="C2804" t="n">
         <v>12187501</v>
@@ -31283,7 +31283,7 @@
         <v>2803</v>
       </c>
       <c r="B2805" t="n">
-        <v>6.92</v>
+        <v>1.8152</v>
       </c>
       <c r="C2805" t="n">
         <v>12187501</v>
@@ -31294,7 +31294,7 @@
         <v>2804</v>
       </c>
       <c r="B2806" t="n">
-        <v>0.4256</v>
+        <v>6.910400000000001</v>
       </c>
       <c r="C2806" t="n">
         <v>12187501</v>
@@ -31305,7 +31305,7 @@
         <v>2805</v>
       </c>
       <c r="B2807" t="n">
-        <v>2.4144</v>
+        <v>0.3456</v>
       </c>
       <c r="C2807" t="n">
         <v>12187501</v>
@@ -31316,7 +31316,7 @@
         <v>2806</v>
       </c>
       <c r="B2808" t="n">
-        <v>4.4256</v>
+        <v>2.4144</v>
       </c>
       <c r="C2808" t="n">
         <v>12187501</v>
@@ -31327,7 +31327,7 @@
         <v>2807</v>
       </c>
       <c r="B2809" t="n">
-        <v>11.4104</v>
+        <v>4.4256</v>
       </c>
       <c r="C2809" t="n">
         <v>12187501</v>
@@ -31338,20 +31338,9 @@
         <v>2808</v>
       </c>
       <c r="B2810" t="n">
-        <v>0.92</v>
+        <v>18.4952</v>
       </c>
       <c r="C2810" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="2811">
-      <c r="A2811" s="1" t="n">
-        <v>2809</v>
-      </c>
-      <c r="B2811" t="n">
-        <v>21.9952</v>
-      </c>
-      <c r="C2811" t="n">
         <v>12187501</v>
       </c>
     </row>
